--- a/Amazon Testcases.xlsx
+++ b/Amazon Testcases.xlsx
@@ -799,10 +799,10 @@
     <t>Attachment</t>
   </si>
   <si>
-    <t>BUG-SC-011</t>
+    <t>TC-004</t>
   </si>
   <si>
-    <t>TC-004</t>
+    <t>BUG-SC-011</t>
   </si>
   <si>
     <t>Products returned when searching with special characters.</t>
@@ -1033,9 +1033,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1044,6 +1041,9 @@
       </top>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1209,10 +1209,10 @@
     <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1227,7 +1227,7 @@
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1264,7 +1264,7 @@
     <xdr:ext cx="85725" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1292,7 +1292,7 @@
     <xdr:ext cx="85725" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30888,7 +30888,7 @@
       <c r="G2" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>248</v>
       </c>
       <c r="I2" s="55"/>
@@ -30912,10 +30912,10 @@
     </row>
     <row r="3">
       <c r="A3" s="57" t="s">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>250</v>
@@ -30932,7 +30932,7 @@
       <c r="G3" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="57" t="s">
         <v>255</v>
       </c>
       <c r="I3" s="60"/>
@@ -30998,7 +30998,6 @@
     </row>
     <row r="5">
       <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="56"/>
